--- a/Udemy free excel/UDEMY BEGINEERS COURSE EXCEL.xlsx
+++ b/Udemy free excel/UDEMY BEGINEERS COURSE EXCEL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EXCEL\Udemy free excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1306836-A2F2-4EE7-891F-D4FBE6329B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE4FE1E-1534-48DF-B193-A8B5C37C8A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOOK" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>The discovery of India</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>Selling Price</t>
+  </si>
+  <si>
+    <t>anurag has made certain changes here</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -315,15 +318,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M4" sqref="M4"/>
@@ -623,23 +625,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="16">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="J1" s="13">
         <v>0.3</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="13">
         <v>0.5</v>
       </c>
-      <c r="L1" s="16">
+      <c r="L1" s="13">
         <v>0.7</v>
       </c>
     </row>
@@ -685,7 +687,7 @@
       <c r="E3" s="5">
         <v>159</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="12">
         <v>0.3</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -722,7 +724,7 @@
       <c r="E4" s="5">
         <v>750.45899999999995</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="12">
         <v>0.2</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -761,7 +763,7 @@
       <c r="E5" s="5">
         <v>250</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="12">
         <v>0.15</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -800,7 +802,7 @@
       <c r="E6" s="5">
         <v>1275.248</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="12">
         <v>0.1</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -839,7 +841,7 @@
       <c r="E7" s="5">
         <v>599.95000000000005</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>0.3</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -878,7 +880,7 @@
       <c r="E8" s="5">
         <v>159</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="12">
         <v>0.3</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -915,7 +917,7 @@
       <c r="E9" s="5">
         <v>750.45899999999995</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="12">
         <v>0.2</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -954,7 +956,7 @@
       <c r="E10" s="5">
         <v>250</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="12">
         <v>0.15</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -993,7 +995,7 @@
       <c r="E11" s="5">
         <v>1275.248</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="12">
         <v>0.1</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -1032,7 +1034,7 @@
       <c r="E12" s="5">
         <v>599.95000000000005</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="12">
         <v>0.3</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1071,7 +1073,7 @@
       <c r="E13" s="5">
         <v>159</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="12">
         <v>0.3</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -1108,7 +1110,7 @@
       <c r="E14" s="5">
         <v>750.45899999999995</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="12">
         <v>0.2</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1147,7 +1149,7 @@
       <c r="E15" s="5">
         <v>250</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="12">
         <v>0.15</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1186,7 +1188,7 @@
       <c r="E16" s="5">
         <v>1275.248</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="12">
         <v>0.1</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -1208,9 +1210,6 @@
         <f t="shared" si="0"/>
         <v>2167.9216000000001</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D20" s="15"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G16">
@@ -1228,7 +1227,7 @@
   <dimension ref="A1:NB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2383,6 +2382,9 @@
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:366" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
